--- a/R/data/food_plan_231030_tmp.xlsx
+++ b/R/data/food_plan_231030_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3383" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5936" uniqueCount="612">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1139,6 +1139,714 @@
   </si>
   <si>
     <t>박준영</t>
+  </si>
+  <si>
+    <t>rkdus0413@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>최가연</t>
+  </si>
+  <si>
+    <t>seohyojeong123@gmail.com</t>
+  </si>
+  <si>
+    <t>서효정</t>
+  </si>
+  <si>
+    <t>ggwoo02211@gmail.com</t>
+  </si>
+  <si>
+    <t>박건우</t>
+  </si>
+  <si>
+    <t>yewon6501@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">식품영양학과 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">박예원 </t>
+  </si>
+  <si>
+    <t>phyi0915@naver.com</t>
+  </si>
+  <si>
+    <t>백승진</t>
+  </si>
+  <si>
+    <t>rlaekdp1505@naver.com</t>
+  </si>
+  <si>
+    <t>김다예</t>
+  </si>
+  <si>
+    <t>lelle0514@naver.com</t>
+  </si>
+  <si>
+    <t>김예진</t>
+  </si>
+  <si>
+    <t>k00e0096@naver.com</t>
+  </si>
+  <si>
+    <t>임민지</t>
+  </si>
+  <si>
+    <t>mukyx00@naver.com</t>
+  </si>
+  <si>
+    <t>엄찬우</t>
+  </si>
+  <si>
+    <t>tpdls1323@naver.com</t>
+  </si>
+  <si>
+    <t>장세인</t>
+  </si>
+  <si>
+    <t>bluejjun619@naver.com</t>
+  </si>
+  <si>
+    <t>윤영준</t>
+  </si>
+  <si>
+    <t>hytree22@naver.com</t>
+  </si>
+  <si>
+    <t>신하영</t>
+  </si>
+  <si>
+    <t>jmc0122@naver.com</t>
+  </si>
+  <si>
+    <t>정원혁</t>
+  </si>
+  <si>
+    <t>whtjsals159@naver.com</t>
+  </si>
+  <si>
+    <t>조선민</t>
+  </si>
+  <si>
+    <t>ymun018@naver.com</t>
+  </si>
+  <si>
+    <t>문윤식</t>
+  </si>
+  <si>
+    <t>kimsemin3@naver.com</t>
+  </si>
+  <si>
+    <t>김세민</t>
+  </si>
+  <si>
+    <t>heeyeon_02@naver.com</t>
+  </si>
+  <si>
+    <t>이희연</t>
+  </si>
+  <si>
+    <t>gusdud0627@naver.com</t>
+  </si>
+  <si>
+    <t>정보과학대학 콘텐츠IT</t>
+  </si>
+  <si>
+    <t>장현일</t>
+  </si>
+  <si>
+    <t>wkdtngus2001@naver.com</t>
+  </si>
+  <si>
+    <t>국어국문학과</t>
+  </si>
+  <si>
+    <t>장수현</t>
+  </si>
+  <si>
+    <t>guseons__@naver.com</t>
+  </si>
+  <si>
+    <t>반도체전공</t>
+  </si>
+  <si>
+    <t>구선화</t>
+  </si>
+  <si>
+    <t>leetaeyang00@gmail.com</t>
+  </si>
+  <si>
+    <t>이태양</t>
+  </si>
+  <si>
+    <t>20223614@sdhs.gwe.hs.kr</t>
+  </si>
+  <si>
+    <t>윤태웅</t>
+  </si>
+  <si>
+    <t>lsjlol1264@naver.com</t>
+  </si>
+  <si>
+    <t>이세진</t>
+  </si>
+  <si>
+    <t>mhw040414@naver.com</t>
+  </si>
+  <si>
+    <t>문희원</t>
+  </si>
+  <si>
+    <t>1004eunsei@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌 비즈니스학과</t>
+  </si>
+  <si>
+    <t>조은세</t>
+  </si>
+  <si>
+    <t>wlsgml9808@naver.com</t>
+  </si>
+  <si>
+    <t>이진희</t>
+  </si>
+  <si>
+    <t>qazx429@naver.com</t>
+  </si>
+  <si>
+    <t>김민서</t>
+  </si>
+  <si>
+    <t>kimcylove@naver.com</t>
+  </si>
+  <si>
+    <t>사회복지학전공</t>
+  </si>
+  <si>
+    <t>psjj3840@gmail.com</t>
+  </si>
+  <si>
+    <t>박서진</t>
+  </si>
+  <si>
+    <t>yantaijin1@naver.com</t>
+  </si>
+  <si>
+    <t>박종진</t>
+  </si>
+  <si>
+    <t>030223cho@naver.com</t>
+  </si>
+  <si>
+    <t>조성진</t>
+  </si>
+  <si>
+    <t>donghyunkim0404@naver.com</t>
+  </si>
+  <si>
+    <t>김동현</t>
+  </si>
+  <si>
+    <t>ridsigdog@gmail.com</t>
+  </si>
+  <si>
+    <t>박건민</t>
+  </si>
+  <si>
+    <t>memo0103@naver.com</t>
+  </si>
+  <si>
+    <t>안현서</t>
+  </si>
+  <si>
+    <t>phg1242@naver.com</t>
+  </si>
+  <si>
+    <t>박효근</t>
+  </si>
+  <si>
+    <t>suin207846@naver.com</t>
+  </si>
+  <si>
+    <t>안수인</t>
+  </si>
+  <si>
+    <t>fkdldjs0322@naver.com</t>
+  </si>
+  <si>
+    <t>이지희</t>
+  </si>
+  <si>
+    <t>hyeeun7356@naver.com</t>
+  </si>
+  <si>
+    <t>유혜은</t>
+  </si>
+  <si>
+    <t>h20206619@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>신현경</t>
+  </si>
+  <si>
+    <t>ssb060333@gmail.com</t>
+  </si>
+  <si>
+    <t>신수빈</t>
+  </si>
+  <si>
+    <t>huijeongj019@gmail.com</t>
+  </si>
+  <si>
+    <t>조희정</t>
+  </si>
+  <si>
+    <t>yonj2sj@naver.com</t>
+  </si>
+  <si>
+    <t>양은채</t>
+  </si>
+  <si>
+    <t>lsk8424@naver.com</t>
+  </si>
+  <si>
+    <t>이상기</t>
+  </si>
+  <si>
+    <t>hyeoni072812@naver.com</t>
+  </si>
+  <si>
+    <t>임서현</t>
+  </si>
+  <si>
+    <t>drmiso526@naver.com</t>
+  </si>
+  <si>
+    <t>김세중</t>
+  </si>
+  <si>
+    <t>hmuc1smoker@gmail.com</t>
+  </si>
+  <si>
+    <t>스마트IOT</t>
+  </si>
+  <si>
+    <t>서정원</t>
+  </si>
+  <si>
+    <t>kimtaejin3882@gmail.com</t>
+  </si>
+  <si>
+    <t>김태진</t>
+  </si>
+  <si>
+    <t>yenaridia@naver.com</t>
+  </si>
+  <si>
+    <t>최예나</t>
+  </si>
+  <si>
+    <t>yjh110951@gmail.com</t>
+  </si>
+  <si>
+    <t>유정훈</t>
+  </si>
+  <si>
+    <t>minzero523@naver.com</t>
+  </si>
+  <si>
+    <t>동민영</t>
+  </si>
+  <si>
+    <t>bill916@naver.com</t>
+  </si>
+  <si>
+    <t>의약신소재</t>
+  </si>
+  <si>
+    <t>신대철</t>
+  </si>
+  <si>
+    <t>fodhzks1@naver.com</t>
+  </si>
+  <si>
+    <t>환경생명공학학과</t>
+  </si>
+  <si>
+    <t>dbswlals0326@naver.com</t>
+  </si>
+  <si>
+    <t>윤지민</t>
+  </si>
+  <si>
+    <t>leejuns0711@naver.com</t>
+  </si>
+  <si>
+    <t>이준서</t>
+  </si>
+  <si>
+    <t>sharkyminzz@gmail.com</t>
+  </si>
+  <si>
+    <t>서민형</t>
+  </si>
+  <si>
+    <t>rbgjs65@gmail.com</t>
+  </si>
+  <si>
+    <t>샘명과학과</t>
+  </si>
+  <si>
+    <t>김규헌</t>
+  </si>
+  <si>
+    <t>ohj09170@naver.com</t>
+  </si>
+  <si>
+    <t>미디어스쿨</t>
+  </si>
+  <si>
+    <t>오현진</t>
+  </si>
+  <si>
+    <t>lsh0409210@gmail.com</t>
+  </si>
+  <si>
+    <t>이시은</t>
+  </si>
+  <si>
+    <t>tjfud05@naver.com</t>
+  </si>
+  <si>
+    <t>박서령</t>
+  </si>
+  <si>
+    <t>limhyoeun8698@naver.com</t>
+  </si>
+  <si>
+    <t>임효은</t>
+  </si>
+  <si>
+    <t>ekgus0916@naver.com</t>
+  </si>
+  <si>
+    <t>김다현</t>
+  </si>
+  <si>
+    <t>lhj040512@naver.com</t>
+  </si>
+  <si>
+    <t>이현종</t>
+  </si>
+  <si>
+    <t>dlguswls0676@naver.com</t>
+  </si>
+  <si>
+    <t>인문학부 철학전공</t>
+  </si>
+  <si>
+    <t>이현진</t>
+  </si>
+  <si>
+    <t>pgw0814@gmail.com</t>
+  </si>
+  <si>
+    <t>박지우</t>
+  </si>
+  <si>
+    <t>dndbql123@naver.com</t>
+  </si>
+  <si>
+    <t>전유비</t>
+  </si>
+  <si>
+    <t>qndks2129@naver.com</t>
+  </si>
+  <si>
+    <t>박지혜</t>
+  </si>
+  <si>
+    <t>20233825@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>엄서현</t>
+  </si>
+  <si>
+    <t>pjw4063@naver.com</t>
+  </si>
+  <si>
+    <t>박지원</t>
+  </si>
+  <si>
+    <t>0000fire74@gmail.com</t>
+  </si>
+  <si>
+    <t>김민선</t>
+  </si>
+  <si>
+    <t>catboom5329@gmail.com</t>
+  </si>
+  <si>
+    <t>박주현</t>
+  </si>
+  <si>
+    <t>ksrkatie@naver.com</t>
+  </si>
+  <si>
+    <t>권소린</t>
+  </si>
+  <si>
+    <t>steve0711@naver.com</t>
+  </si>
+  <si>
+    <t>이승준</t>
+  </si>
+  <si>
+    <t>a01031309196@gmail.com</t>
+  </si>
+  <si>
+    <t>광고홍보</t>
+  </si>
+  <si>
+    <t>김현채</t>
+  </si>
+  <si>
+    <t>sang010516@naver.com</t>
+  </si>
+  <si>
+    <t>최상은</t>
+  </si>
+  <si>
+    <t>tjtmdwns3504@gmail.com</t>
+  </si>
+  <si>
+    <t>서승준</t>
+  </si>
+  <si>
+    <t>sally4417776@naver.com</t>
+  </si>
+  <si>
+    <t>안세연</t>
+  </si>
+  <si>
+    <t>kimcr0678@gmail.com</t>
+  </si>
+  <si>
+    <t>김채령</t>
+  </si>
+  <si>
+    <t>chh040817@naver.com</t>
+  </si>
+  <si>
+    <t>차현화</t>
+  </si>
+  <si>
+    <t>leaf0113@naver.com</t>
+  </si>
+  <si>
+    <t>김남은</t>
+  </si>
+  <si>
+    <t>0310cherry@naver.com</t>
+  </si>
+  <si>
+    <t>이재원</t>
+  </si>
+  <si>
+    <t>inhwagil40@gmail.com</t>
+  </si>
+  <si>
+    <t>길인화</t>
+  </si>
+  <si>
+    <t>junesumin12@naver.com</t>
+  </si>
+  <si>
+    <t>전수민</t>
+  </si>
+  <si>
+    <t>mhkimghrhkd@naver.com</t>
+  </si>
+  <si>
+    <t>김민혁</t>
+  </si>
+  <si>
+    <t>audri01@naver.com</t>
+  </si>
+  <si>
+    <t>이승아</t>
+  </si>
+  <si>
+    <t>kkhe2370@naver.com</t>
+  </si>
+  <si>
+    <t>전혜린</t>
+  </si>
+  <si>
+    <t>kuopty2758@gmail.com</t>
+  </si>
+  <si>
+    <t>강채원</t>
+  </si>
+  <si>
+    <t>lucky021217@naver.com</t>
+  </si>
+  <si>
+    <t>박예원</t>
+  </si>
+  <si>
+    <t>pig6832@naver.com</t>
+  </si>
+  <si>
+    <t>wotmddl3947@gmail.com</t>
+  </si>
+  <si>
+    <t>류재승</t>
+  </si>
+  <si>
+    <t>tmdals7205@gmail.com</t>
+  </si>
+  <si>
+    <t>정보과학대학 소프트웨어융합 스마트IOT</t>
+  </si>
+  <si>
+    <t>박승민</t>
+  </si>
+  <si>
+    <t>tlsrkdms12345@naver.com</t>
+  </si>
+  <si>
+    <t>신가은</t>
+  </si>
+  <si>
+    <t>lia129@naver.com</t>
+  </si>
+  <si>
+    <t>노효은</t>
+  </si>
+  <si>
+    <t>heejae7942@naver.com</t>
+  </si>
+  <si>
+    <t>최희재</t>
+  </si>
+  <si>
+    <t>leeyen1215@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어</t>
+  </si>
+  <si>
+    <t>이예인</t>
+  </si>
+  <si>
+    <t>dong9mi24k@naver.com</t>
+  </si>
+  <si>
+    <t>이동금</t>
+  </si>
+  <si>
+    <t>wjdfkgus1020@naver.com</t>
+  </si>
+  <si>
+    <t>정라현</t>
+  </si>
+  <si>
+    <t>poliku8630@naver.com</t>
+  </si>
+  <si>
+    <t>컨텐츠IT</t>
+  </si>
+  <si>
+    <t>심지혁</t>
+  </si>
+  <si>
+    <t>dbwlgns1307@naver.com</t>
+  </si>
+  <si>
+    <t>유지훈</t>
+  </si>
+  <si>
+    <t>cheis11@naver.com</t>
+  </si>
+  <si>
+    <t>김찬호</t>
+  </si>
+  <si>
+    <t>ga89193234@gmail.com</t>
+  </si>
+  <si>
+    <t>김경아</t>
+  </si>
+  <si>
+    <t>u01022994088@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어융합학과</t>
+  </si>
+  <si>
+    <t>구광모</t>
+  </si>
+  <si>
+    <t>cyurim3@gmail.com</t>
+  </si>
+  <si>
+    <t>최유림</t>
+  </si>
+  <si>
+    <t>jinhwanjeong8@gmail.com</t>
+  </si>
+  <si>
+    <t>정진환</t>
+  </si>
+  <si>
+    <t>junhvn1@gmail.com</t>
+  </si>
+  <si>
+    <t>박준한</t>
+  </si>
+  <si>
+    <t>dlekals56@gmail.com</t>
+  </si>
+  <si>
+    <t>이다민</t>
+  </si>
+  <si>
+    <t>chominseo1029@naver.com</t>
+  </si>
+  <si>
+    <t>조민서</t>
+  </si>
+  <si>
+    <t>jaejae7070@naver.com</t>
+  </si>
+  <si>
+    <t>이재빈</t>
+  </si>
+  <si>
+    <t>citchchache@gmail.com</t>
+  </si>
+  <si>
+    <t>공병우</t>
+  </si>
+  <si>
+    <t>ckckguswns@naver.com</t>
+  </si>
+  <si>
+    <t>차현준</t>
+  </si>
+  <si>
+    <t>20225169@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>배승유</t>
+  </si>
+  <si>
+    <t>mys714@naver.com</t>
+  </si>
+  <si>
+    <t>문예슬</t>
   </si>
 </sst>
 </file>
@@ -12727,6 +13435,8553 @@
         <v>30</v>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" s="2">
+        <v>45231.47048521991</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D148" s="3">
+        <v>2.0236168E7</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L148" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M148" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N148" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O148" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P148" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q148" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R148" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S148" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T148" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U148" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V148" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W148" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X148" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y148" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2">
+        <v>45231.47396135417</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D149" s="3">
+        <v>2.0226622E7</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L149" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M149" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N149" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O149" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P149" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q149" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R149" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S149" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T149" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U149" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V149" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W149" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X149" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y149" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2">
+        <v>45231.488929907406</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D150" s="3">
+        <v>2.0232817E7</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L150" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M150" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N150" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O150" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P150" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q150" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R150" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S150" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T150" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U150" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V150" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W150" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X150" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y150" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2">
+        <v>45231.48969643519</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D151" s="3">
+        <v>2.0223817E7</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L151" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M151" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N151" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O151" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P151" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q151" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R151" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S151" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T151" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U151" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V151" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W151" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X151" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y151" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2">
+        <v>45231.52027853009</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D152" s="3">
+        <v>2.0232967E7</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L152" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M152" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N152" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O152" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P152" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q152" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R152" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S152" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T152" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U152" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V152" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W152" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X152" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y152" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2">
+        <v>45231.52045306713</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D153" s="3">
+        <v>2.0222908E7</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L153" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M153" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N153" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O153" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P153" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q153" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R153" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S153" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T153" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U153" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V153" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W153" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X153" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y153" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2">
+        <v>45231.5604155787</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" s="3">
+        <v>2.0202513E7</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L154" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M154" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N154" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O154" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P154" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q154" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R154" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S154" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T154" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U154" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V154" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W154" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X154" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y154" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2">
+        <v>45231.561310879624</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D155" s="3">
+        <v>2.0202355E7</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L155" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M155" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N155" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O155" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P155" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q155" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R155" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S155" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T155" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U155" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V155" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W155" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X155" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y155" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2">
+        <v>45231.60280976852</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D156" s="3">
+        <v>2.0202547E7</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L156" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M156" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N156" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O156" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P156" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q156" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R156" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S156" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T156" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U156" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V156" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W156" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X156" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y156" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2">
+        <v>45231.60370273148</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D157" s="3">
+        <v>2.0233245E7</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L157" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M157" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N157" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O157" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P157" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q157" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R157" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S157" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T157" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U157" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V157" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W157" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X157" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y157" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2">
+        <v>45231.61402813657</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D158" s="3">
+        <v>2.0226758E7</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L158" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M158" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N158" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O158" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P158" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q158" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R158" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S158" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T158" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U158" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V158" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W158" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X158" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y158" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2">
+        <v>45231.61608037037</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D159" s="3">
+        <v>2.0232724E7</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L159" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M159" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N159" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O159" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P159" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q159" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R159" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S159" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T159" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U159" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V159" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W159" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X159" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y159" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2">
+        <v>45231.62511703704</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D160" s="3">
+        <v>2.0173057E7</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L160" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M160" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N160" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O160" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P160" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q160" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R160" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S160" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T160" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U160" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V160" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W160" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X160" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y160" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2">
+        <v>45231.63634427083</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D161" s="3">
+        <v>2.0236778E7</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L161" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M161" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N161" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O161" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P161" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q161" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R161" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S161" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T161" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U161" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V161" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W161" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X161" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y161" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2">
+        <v>45231.64502188658</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D162" s="3">
+        <v>2.023516E7</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L162" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M162" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N162" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O162" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P162" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q162" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R162" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S162" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T162" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U162" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V162" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W162" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X162" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y162" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2">
+        <v>45231.65104924768</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D163" s="3">
+        <v>2.0233607E7</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L163" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M163" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N163" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O163" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P163" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q163" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R163" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S163" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T163" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U163" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V163" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W163" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X163" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y163" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2">
+        <v>45231.65440615741</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D164" s="3">
+        <v>2.0231536E7</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L164" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M164" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N164" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O164" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P164" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q164" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R164" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S164" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T164" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U164" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V164" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W164" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X164" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y164" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2">
+        <v>45231.6704800463</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D165" s="3">
+        <v>2.0205246E7</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L165" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M165" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N165" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O165" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P165" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q165" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R165" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S165" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T165" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U165" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V165" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W165" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X165" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y165" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2">
+        <v>45231.698666412034</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D166" s="3">
+        <v>2020190.0</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K166" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L166" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M166" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N166" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O166" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P166" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q166" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R166" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S166" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T166" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U166" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V166" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W166" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X166" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y166" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2">
+        <v>45231.715317476854</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D167" s="3">
+        <v>2.0203301E7</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K167" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L167" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M167" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N167" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O167" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P167" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q167" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R167" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S167" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T167" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U167" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V167" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W167" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X167" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y167" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2">
+        <v>45231.719543252315</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D168" s="3">
+        <v>2.02367646E8</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K168" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L168" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M168" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N168" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O168" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P168" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q168" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R168" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S168" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T168" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U168" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V168" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W168" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X168" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y168" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2">
+        <v>45231.738271759255</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D169" s="3">
+        <v>2.023522E7</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K169" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L169" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M169" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N169" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O169" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P169" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q169" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R169" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S169" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T169" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U169" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V169" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W169" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X169" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y169" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2">
+        <v>45231.76591744213</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D170" s="3">
+        <v>2.0182941E7</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K170" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L170" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M170" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N170" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O170" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P170" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q170" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R170" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S170" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T170" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U170" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V170" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W170" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X170" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y170" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2">
+        <v>45231.800831643515</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D171" s="3">
+        <v>2.023161E7</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K171" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L171" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M171" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N171" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O171" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P171" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q171" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R171" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S171" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T171" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U171" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V171" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W171" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X171" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y171" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2">
+        <v>45231.803842395835</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D172" s="3">
+        <v>2.0226423E7</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J172" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K172" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L172" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M172" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N172" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O172" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P172" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q172" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R172" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S172" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T172" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U172" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V172" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W172" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X172" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y172" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2">
+        <v>45231.8141228125</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D173" s="3">
+        <v>2.0173728E7</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K173" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L173" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M173" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N173" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O173" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P173" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q173" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R173" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S173" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T173" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U173" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V173" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W173" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X173" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y173" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2">
+        <v>45231.83059525463</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D174" s="3">
+        <v>2.0232706E7</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J174" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K174" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L174" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M174" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N174" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O174" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P174" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q174" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R174" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S174" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T174" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U174" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V174" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W174" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X174" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y174" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2">
+        <v>45231.91028949074</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D175" s="3">
+        <v>2.021232E7</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K175" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L175" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M175" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N175" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O175" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P175" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q175" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R175" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S175" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T175" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U175" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V175" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W175" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X175" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y175" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2">
+        <v>45231.92085440972</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D176" s="3">
+        <v>2.0215154E7</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K176" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L176" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M176" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N176" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O176" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P176" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q176" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R176" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S176" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T176" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U176" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V176" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W176" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X176" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y176" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2">
+        <v>45231.936486481485</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D177" s="3">
+        <v>2.0191517E7</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K177" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L177" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M177" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N177" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O177" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P177" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q177" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R177" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S177" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T177" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U177" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V177" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W177" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X177" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y177" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2">
+        <v>45231.94819243056</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D178" s="3">
+        <v>2.0231235E7</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L178" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M178" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N178" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O178" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P178" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q178" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R178" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S178" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T178" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U178" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V178" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W178" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X178" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y178" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2">
+        <v>45231.95874497685</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D179" s="3">
+        <v>2.0232204E7</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K179" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L179" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M179" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N179" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O179" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P179" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q179" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R179" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S179" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T179" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U179" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V179" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W179" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X179" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y179" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2">
+        <v>45231.97227820602</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D180" s="3">
+        <v>2.0202816E7</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K180" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L180" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M180" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N180" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O180" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P180" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q180" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R180" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S180" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T180" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U180" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V180" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W180" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X180" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y180" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2">
+        <v>45231.98572065972</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D181" s="3">
+        <v>2.0236142E7</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J181" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K181" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L181" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M181" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N181" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O181" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P181" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q181" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R181" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S181" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T181" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U181" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V181" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W181" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X181" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y181" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2">
+        <v>45231.98659804398</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D182" s="3">
+        <v>2.0193926E7</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J182" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K182" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L182" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M182" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N182" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O182" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P182" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q182" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R182" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S182" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T182" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U182" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V182" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W182" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X182" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y182" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2">
+        <v>45232.0016006713</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D183" s="3">
+        <v>2.0222977E7</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J183" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K183" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L183" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M183" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N183" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O183" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P183" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q183" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R183" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S183" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T183" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U183" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V183" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W183" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X183" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y183" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2">
+        <v>45232.01260677083</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D184" s="3">
+        <v>2.0231075E7</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J184" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K184" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L184" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M184" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N184" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O184" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P184" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q184" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R184" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S184" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T184" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U184" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V184" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W184" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X184" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y184" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2">
+        <v>45232.02108025463</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D185" s="3">
+        <v>2.0203824E7</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J185" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K185" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L185" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M185" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N185" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O185" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P185" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q185" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R185" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S185" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T185" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U185" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V185" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W185" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X185" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y185" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2">
+        <v>45232.034749293976</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D186" s="3">
+        <v>2.0206619E7</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J186" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K186" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L186" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M186" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N186" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O186" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P186" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q186" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R186" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S186" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T186" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U186" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V186" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W186" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X186" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y186" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2">
+        <v>45232.03820131945</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D187" s="3">
+        <v>2.0222614E7</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J187" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K187" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L187" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M187" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N187" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O187" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P187" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q187" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R187" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S187" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T187" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U187" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V187" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W187" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X187" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y187" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2">
+        <v>45232.04680913195</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D188" s="3">
+        <v>2.023396E7</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J188" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K188" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L188" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M188" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N188" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O188" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P188" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q188" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R188" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S188" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T188" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U188" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V188" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W188" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X188" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y188" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2">
+        <v>45232.04927645833</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D189" s="3">
+        <v>2.0236742E7</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J189" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K189" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L189" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M189" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N189" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O189" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P189" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q189" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R189" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S189" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T189" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U189" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V189" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W189" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X189" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y189" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2">
+        <v>45232.354573125005</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D190" s="3">
+        <v>2.0172428E7</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I190" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J190" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K190" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L190" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M190" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N190" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O190" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P190" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q190" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R190" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S190" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T190" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U190" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V190" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W190" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X190" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y190" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2">
+        <v>45232.380697141205</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D191" s="3">
+        <v>2.0233426E7</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J191" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K191" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L191" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M191" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N191" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O191" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P191" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q191" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R191" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S191" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T191" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U191" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V191" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W191" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X191" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y191" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2">
+        <v>45232.381921493055</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D192" s="3">
+        <v>2.019231E7</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I192" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J192" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K192" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L192" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M192" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N192" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O192" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P192" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q192" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R192" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S192" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T192" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U192" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V192" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W192" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X192" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y192" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2">
+        <v>45232.44461864584</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D193" s="3">
+        <v>2.0217146E7</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I193" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J193" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K193" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L193" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M193" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N193" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O193" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P193" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q193" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R193" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S193" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T193" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U193" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V193" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W193" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X193" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y193" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2">
+        <v>45232.448305</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D194" s="3">
+        <v>2.0232939E7</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I194" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J194" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K194" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L194" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M194" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N194" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O194" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P194" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q194" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R194" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S194" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T194" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U194" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V194" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W194" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X194" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y194" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2">
+        <v>45232.45213118056</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D195" s="3">
+        <v>2.0201634E7</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J195" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K195" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L195" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M195" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N195" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O195" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P195" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q195" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R195" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S195" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T195" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U195" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V195" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W195" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X195" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y195" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2">
+        <v>45232.48289859954</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D196" s="3">
+        <v>2.0232995E7</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I196" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J196" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K196" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L196" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M196" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N196" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O196" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P196" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q196" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R196" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S196" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T196" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U196" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V196" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W196" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X196" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y196" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2">
+        <v>45232.50871222222</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D197" s="3">
+        <v>2.0212945E7</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J197" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K197" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L197" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M197" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N197" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O197" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P197" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q197" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R197" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S197" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T197" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U197" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V197" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W197" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X197" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y197" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2">
+        <v>45232.52059497686</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D198" s="3">
+        <v>2.0196621E7</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I198" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J198" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K198" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L198" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M198" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N198" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O198" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P198" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q198" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R198" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S198" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T198" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U198" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V198" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W198" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X198" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y198" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2">
+        <v>45232.55098462963</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D199" s="3">
+        <v>2.0233728E7</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I199" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J199" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K199" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L199" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M199" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N199" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O199" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P199" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q199" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R199" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S199" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T199" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U199" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V199" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W199" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X199" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y199" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2">
+        <v>45232.59369663194</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D200" s="3">
+        <v>2.0235219E7</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H200" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I200" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J200" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K200" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L200" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M200" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N200" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O200" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P200" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q200" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R200" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S200" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T200" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U200" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V200" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W200" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X200" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y200" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2">
+        <v>45232.59781584491</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D201" s="3">
+        <v>2.0202741E7</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I201" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J201" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K201" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L201" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M201" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N201" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O201" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P201" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q201" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R201" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S201" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T201" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U201" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V201" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W201" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X201" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y201" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2">
+        <v>45232.59813083333</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D202" s="3">
+        <v>2.0236136E7</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I202" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J202" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K202" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L202" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M202" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N202" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O202" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P202" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q202" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R202" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S202" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T202" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U202" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V202" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W202" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X202" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y202" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2">
+        <v>45232.599197372685</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D203" s="3">
+        <v>2.0203501E7</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I203" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J203" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K203" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L203" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M203" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N203" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O203" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P203" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q203" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R203" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S203" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T203" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U203" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V203" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W203" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X203" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y203" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2">
+        <v>45232.60071549768</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D204" s="3">
+        <v>2.0232555E7</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H204" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I204" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J204" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K204" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L204" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M204" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N204" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O204" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P204" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q204" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R204" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S204" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T204" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U204" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V204" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W204" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X204" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y204" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2">
+        <v>45232.60472482639</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D205" s="3">
+        <v>2.0233726E7</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I205" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J205" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K205" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L205" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M205" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N205" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O205" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P205" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q205" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R205" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S205" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T205" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U205" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V205" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W205" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X205" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y205" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2">
+        <v>45232.60473299769</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D206" s="3">
+        <v>2.0233409E7</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I206" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J206" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K206" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L206" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M206" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N206" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O206" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P206" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q206" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R206" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S206" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T206" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U206" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V206" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W206" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X206" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y206" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2">
+        <v>45232.60718471065</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D207" s="3">
+        <v>2.0232572E7</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J207" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K207" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L207" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M207" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N207" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O207" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P207" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q207" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R207" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S207" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T207" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U207" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V207" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W207" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X207" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y207" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2">
+        <v>45232.640295335645</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D208" s="3">
+        <v>2.0217125E7</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I208" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J208" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K208" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L208" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M208" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N208" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O208" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P208" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q208" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R208" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S208" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T208" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U208" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V208" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W208" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X208" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y208" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2">
+        <v>45232.65209953704</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D209" s="3">
+        <v>2.0233424E7</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J209" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K209" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L209" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M209" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N209" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O209" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P209" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q209" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R209" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S209" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T209" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U209" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V209" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W209" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X209" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y209" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2">
+        <v>45232.653056006944</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D210" s="3">
+        <v>2.0171078E7</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I210" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J210" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K210" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L210" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M210" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N210" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O210" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P210" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q210" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R210" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S210" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T210" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U210" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V210" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W210" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X210" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y210" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2">
+        <v>45232.694335810185</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D211" s="3">
+        <v>2.0203409E7</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J211" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K211" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L211" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M211" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N211" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O211" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P211" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q211" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R211" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S211" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T211" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U211" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V211" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W211" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X211" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y211" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2">
+        <v>45232.71472775463</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D212" s="3">
+        <v>2.0232574E7</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J212" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K212" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L212" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M212" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N212" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O212" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P212" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q212" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R212" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S212" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T212" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U212" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V212" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W212" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X212" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y212" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2">
+        <v>45232.74499247685</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D213" s="3">
+        <v>2.0232617E7</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I213" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J213" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K213" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L213" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M213" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N213" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O213" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P213" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q213" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R213" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S213" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T213" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U213" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V213" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W213" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X213" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y213" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2">
+        <v>45232.76612408565</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D214" s="3">
+        <v>2.0233825E7</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I214" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J214" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K214" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L214" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M214" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N214" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O214" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P214" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q214" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R214" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S214" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T214" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U214" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V214" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W214" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X214" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y214" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2">
+        <v>45232.77480832176</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D215" s="3">
+        <v>2.023341E7</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H215" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I215" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J215" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K215" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L215" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M215" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N215" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O215" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P215" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q215" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R215" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S215" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T215" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U215" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V215" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W215" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X215" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y215" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2">
+        <v>45232.8556187037</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D216" s="3">
+        <v>2.0201606E7</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J216" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K216" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L216" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M216" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N216" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O216" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P216" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q216" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R216" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S216" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T216" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U216" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V216" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W216" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X216" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y216" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2">
+        <v>45232.85610493056</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D217" s="3">
+        <v>2.0234121E7</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I217" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J217" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K217" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L217" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M217" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N217" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O217" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P217" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q217" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R217" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S217" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T217" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U217" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V217" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W217" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X217" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y217" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2">
+        <v>45232.867380254625</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D218" s="3">
+        <v>2.0231004E7</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I218" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J218" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K218" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L218" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M218" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N218" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O218" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P218" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q218" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R218" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S218" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T218" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U218" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V218" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W218" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X218" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y218" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2">
+        <v>45232.87670652778</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D219" s="3">
+        <v>2.0183831E7</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J219" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K219" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L219" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M219" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N219" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O219" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P219" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q219" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R219" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S219" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T219" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U219" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V219" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W219" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X219" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y219" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2">
+        <v>45232.90978797454</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D220" s="3">
+        <v>2.0232609E7</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I220" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J220" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K220" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L220" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M220" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N220" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O220" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P220" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q220" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R220" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S220" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T220" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U220" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V220" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W220" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X220" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y220" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2">
+        <v>45232.92746365741</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D221" s="3">
+        <v>2.0202851E7</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I221" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J221" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K221" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L221" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M221" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N221" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O221" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P221" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q221" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R221" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S221" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T221" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U221" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V221" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W221" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X221" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y221" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2">
+        <v>45232.928942060185</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D222" s="3">
+        <v>2.0202331E7</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I222" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J222" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K222" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L222" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M222" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N222" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O222" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P222" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q222" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R222" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S222" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T222" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U222" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V222" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W222" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X222" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y222" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2">
+        <v>45232.938897361106</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D223" s="3">
+        <v>2.0236257E7</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I223" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J223" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K223" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L223" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M223" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N223" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O223" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P223" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q223" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R223" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S223" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T223" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U223" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V223" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W223" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X223" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y223" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2">
+        <v>45232.94139126157</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D224" s="3">
+        <v>2.023623E7</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I224" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J224" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K224" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L224" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M224" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N224" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O224" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P224" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q224" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R224" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S224" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T224" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U224" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V224" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W224" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X224" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y224" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2">
+        <v>45232.947836527776</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D225" s="3">
+        <v>2.0233962E7</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I225" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J225" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K225" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L225" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M225" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N225" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O225" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P225" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q225" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R225" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S225" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T225" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U225" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V225" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W225" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X225" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y225" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2">
+        <v>45232.95072671297</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D226" s="3">
+        <v>2.0231203E7</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I226" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J226" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K226" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L226" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M226" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N226" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O226" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P226" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q226" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R226" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S226" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T226" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U226" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V226" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W226" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X226" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y226" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2">
+        <v>45232.95858875</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D227" s="3">
+        <v>2.019153E7</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I227" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J227" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K227" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L227" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M227" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N227" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O227" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P227" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q227" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R227" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S227" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T227" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U227" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V227" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W227" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X227" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y227" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2">
+        <v>45232.9964860301</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D228" s="3">
+        <v>2.023621E7</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I228" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J228" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K228" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L228" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M228" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N228" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O228" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P228" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q228" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R228" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S228" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T228" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U228" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V228" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W228" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X228" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y228" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2">
+        <v>45233.017928518515</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D229" s="3">
+        <v>2.0236289E7</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I229" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J229" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K229" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L229" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M229" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N229" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O229" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P229" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q229" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R229" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S229" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T229" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U229" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V229" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W229" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X229" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y229" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2">
+        <v>45233.13571221065</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D230" s="3">
+        <v>2.020411E7</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I230" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J230" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K230" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L230" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M230" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N230" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O230" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P230" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q230" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R230" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S230" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T230" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U230" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V230" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W230" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X230" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y230" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2">
+        <v>45233.399329305554</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D231" s="3">
+        <v>2.0203639E7</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I231" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J231" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K231" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L231" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M231" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N231" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O231" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P231" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q231" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R231" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S231" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T231" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U231" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V231" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W231" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X231" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y231" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2">
+        <v>45233.423141886575</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D232" s="3">
+        <v>2.0202638E7</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I232" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J232" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K232" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L232" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M232" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N232" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O232" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P232" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q232" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R232" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S232" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T232" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U232" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V232" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W232" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X232" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y232" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2">
+        <v>45233.43892197916</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D233" s="3">
+        <v>2.0232303E7</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I233" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J233" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K233" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L233" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M233" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N233" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O233" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P233" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q233" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R233" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S233" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T233" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U233" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V233" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W233" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X233" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y233" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2">
+        <v>45233.52683142362</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D234" s="3">
+        <v>2.0212621E7</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I234" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J234" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K234" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L234" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M234" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N234" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O234" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P234" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q234" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R234" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S234" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T234" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U234" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V234" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W234" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X234" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y234" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2">
+        <v>45233.54098420139</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D235" s="3">
+        <v>2.023274E7</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G235" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I235" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J235" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K235" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L235" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M235" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N235" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O235" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P235" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q235" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R235" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S235" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T235" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U235" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V235" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W235" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X235" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y235" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2">
+        <v>45233.562110405095</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D236" s="3">
+        <v>2.0195157E7</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I236" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J236" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K236" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L236" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M236" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N236" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O236" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P236" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q236" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R236" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S236" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T236" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U236" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V236" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W236" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X236" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y236" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2">
+        <v>45233.56323532407</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D237" s="3">
+        <v>2.0217144E7</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I237" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J237" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K237" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L237" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M237" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N237" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O237" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P237" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q237" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R237" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S237" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T237" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U237" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V237" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W237" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X237" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y237" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2">
+        <v>45233.56762622685</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D238" s="3">
+        <v>2.0217037E7</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I238" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J238" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K238" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L238" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M238" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N238" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O238" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P238" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q238" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R238" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S238" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T238" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U238" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V238" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W238" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X238" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y238" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2">
+        <v>45233.59874017361</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D239" s="3">
+        <v>2.0232716E7</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H239" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I239" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J239" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K239" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L239" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M239" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N239" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O239" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P239" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q239" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R239" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S239" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T239" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U239" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V239" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W239" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X239" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y239" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2">
+        <v>45233.62245760417</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D240" s="3">
+        <v>2.0236301E7</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H240" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I240" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J240" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K240" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L240" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M240" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N240" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O240" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P240" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q240" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R240" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S240" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T240" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U240" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V240" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W240" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X240" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y240" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2">
+        <v>45233.63495939814</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="D241" s="3">
+        <v>2.0222561E7</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H241" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I241" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J241" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K241" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L241" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M241" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N241" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O241" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P241" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q241" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R241" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S241" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T241" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U241" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V241" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W241" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X241" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y241" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2">
+        <v>45233.63512290509</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D242" s="3">
+        <v>2.0232426E7</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I242" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J242" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K242" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L242" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M242" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N242" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O242" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P242" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q242" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R242" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S242" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T242" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U242" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V242" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W242" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X242" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y242" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2">
+        <v>45233.66492159722</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D243" s="3">
+        <v>2.0232359E7</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I243" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J243" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K243" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L243" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M243" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N243" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O243" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P243" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q243" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R243" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S243" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T243" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U243" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V243" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W243" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X243" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y243" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2">
+        <v>45233.68243365741</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D244" s="3">
+        <v>2.0205197E7</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I244" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J244" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K244" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L244" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M244" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N244" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O244" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P244" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q244" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R244" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S244" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T244" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U244" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V244" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W244" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X244" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y244" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2">
+        <v>45233.686449305555</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D245" s="3">
+        <v>2.0194132E7</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H245" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I245" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J245" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K245" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L245" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M245" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N245" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O245" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P245" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q245" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R245" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S245" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T245" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U245" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V245" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W245" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X245" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y245" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2">
+        <v>45233.69831100694</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D246" s="3">
+        <v>2.0195143E7</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H246" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I246" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J246" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K246" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L246" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M246" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N246" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O246" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P246" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q246" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R246" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S246" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T246" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U246" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V246" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W246" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X246" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y246" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2">
+        <v>45233.70819603009</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D247" s="3">
+        <v>2.0231007E7</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H247" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I247" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J247" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K247" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L247" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M247" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N247" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O247" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P247" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q247" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R247" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S247" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T247" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U247" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V247" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W247" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X247" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y247" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2">
+        <v>45233.73652398148</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D248" s="3">
+        <v>2.0225111E7</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H248" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I248" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J248" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K248" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L248" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M248" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N248" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O248" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P248" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q248" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R248" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S248" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T248" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U248" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V248" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W248" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X248" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y248" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2">
+        <v>45233.73802856481</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D249" s="3">
+        <v>2.0222143E7</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H249" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I249" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J249" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K249" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L249" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M249" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N249" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O249" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P249" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q249" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R249" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S249" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T249" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U249" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V249" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W249" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X249" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y249" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2">
+        <v>45233.7526809375</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D250" s="3">
+        <v>2.0236776E7</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H250" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I250" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J250" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K250" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L250" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M250" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N250" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O250" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P250" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q250" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R250" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S250" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T250" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U250" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V250" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W250" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X250" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y250" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2">
+        <v>45233.75387865741</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D251" s="3">
+        <v>2.0192614E7</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H251" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I251" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J251" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K251" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L251" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M251" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N251" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O251" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P251" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q251" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R251" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S251" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T251" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U251" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V251" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W251" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X251" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y251" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2">
+        <v>45233.76757214121</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D252" s="3">
+        <v>2.0211526E7</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I252" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J252" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K252" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L252" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M252" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N252" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O252" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P252" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q252" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R252" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S252" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T252" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U252" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V252" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W252" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X252" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y252" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2">
+        <v>45233.77493395833</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D253" s="3">
+        <v>2.0233959E7</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I253" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J253" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K253" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L253" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M253" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N253" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O253" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P253" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q253" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R253" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S253" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T253" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U253" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V253" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W253" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X253" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y253" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2">
+        <v>45233.77585297453</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D254" s="3">
+        <v>2.0221631E7</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G254" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I254" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J254" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K254" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L254" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M254" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N254" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O254" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P254" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q254" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R254" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S254" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T254" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U254" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V254" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W254" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X254" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y254" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2">
+        <v>45233.80417383102</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D255" s="3">
+        <v>2.0235111E7</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G255" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H255" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I255" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J255" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K255" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L255" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M255" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N255" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O255" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P255" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q255" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R255" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S255" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T255" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U255" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V255" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W255" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X255" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y255" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2">
+        <v>45233.813918506945</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D256" s="3">
+        <v>2.0192233E7</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H256" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I256" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J256" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K256" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L256" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M256" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N256" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O256" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P256" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q256" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R256" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S256" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T256" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U256" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V256" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W256" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X256" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y256" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2">
+        <v>45233.825955810185</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D257" s="3">
+        <v>2.0225169E7</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G257" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I257" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J257" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K257" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L257" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M257" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N257" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O257" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P257" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q257" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R257" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S257" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T257" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U257" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V257" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W257" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X257" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y257" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2">
+        <v>45233.84601612268</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D258" s="3">
+        <v>2.0191614E7</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H258" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I258" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J258" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K258" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L258" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M258" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N258" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O258" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P258" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q258" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R258" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S258" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T258" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U258" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V258" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W258" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X258" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y258" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/food_plan_231030_tmp.xlsx
+++ b/R/data/food_plan_231030_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10489" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11524" uniqueCount="1115">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3092,6 +3092,270 @@
   </si>
   <si>
     <t>김은진</t>
+  </si>
+  <si>
+    <t>jangyc3972@gmail.com</t>
+  </si>
+  <si>
+    <t>장윤채</t>
+  </si>
+  <si>
+    <t>ncc11068@naver.com</t>
+  </si>
+  <si>
+    <t>이규린</t>
+  </si>
+  <si>
+    <t>ehgnsdl5110312@gmail.com</t>
+  </si>
+  <si>
+    <t>deo333333@naver.com</t>
+  </si>
+  <si>
+    <t>서대철</t>
+  </si>
+  <si>
+    <t>nic0903930@gmail.com</t>
+  </si>
+  <si>
+    <t>나임채</t>
+  </si>
+  <si>
+    <t>shonshon7@naver.com</t>
+  </si>
+  <si>
+    <t>임소연</t>
+  </si>
+  <si>
+    <t>rkqls3333@gmail.com</t>
+  </si>
+  <si>
+    <t>권가빈</t>
+  </si>
+  <si>
+    <t>dorud030406@naver.com</t>
+  </si>
+  <si>
+    <t>이예경</t>
+  </si>
+  <si>
+    <t>rian213@naver.com</t>
+  </si>
+  <si>
+    <t>안리안</t>
+  </si>
+  <si>
+    <t>choijoonhyuk1412@naver.com</t>
+  </si>
+  <si>
+    <t>cdm990512@gmail.com</t>
+  </si>
+  <si>
+    <t>천동민</t>
+  </si>
+  <si>
+    <t>tjgussla77@naver.com</t>
+  </si>
+  <si>
+    <t>차서현</t>
+  </si>
+  <si>
+    <t>qkrwjdwns0526@gmail.com</t>
+  </si>
+  <si>
+    <t>박정준</t>
+  </si>
+  <si>
+    <t>iceflower082@gmail.com</t>
+  </si>
+  <si>
+    <t>한지우</t>
+  </si>
+  <si>
+    <t>rla00604@gmail.com</t>
+  </si>
+  <si>
+    <t>김수연</t>
+  </si>
+  <si>
+    <t>thomas1114@naver.com</t>
+  </si>
+  <si>
+    <t>이재석</t>
+  </si>
+  <si>
+    <t>abcdefg76500@naver.com</t>
+  </si>
+  <si>
+    <t>노희망</t>
+  </si>
+  <si>
+    <t>kimhongik03@naver.com</t>
+  </si>
+  <si>
+    <t>김홍익</t>
+  </si>
+  <si>
+    <t>wlals0817@naver.com</t>
+  </si>
+  <si>
+    <t>정지민</t>
+  </si>
+  <si>
+    <t>tyu7626@naver.com</t>
+  </si>
+  <si>
+    <t>최서영</t>
+  </si>
+  <si>
+    <t>daysyad@naver.com</t>
+  </si>
+  <si>
+    <t>최소연</t>
+  </si>
+  <si>
+    <t>gksgh2311@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전한호 </t>
+  </si>
+  <si>
+    <t>hmw1019@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>한민우</t>
+  </si>
+  <si>
+    <t>africa00788@gmail.com</t>
+  </si>
+  <si>
+    <t>구도희</t>
+  </si>
+  <si>
+    <t>soekhyun7628@naver.com</t>
+  </si>
+  <si>
+    <t>김석현</t>
+  </si>
+  <si>
+    <t>dhwnsgh740@gmail.com</t>
+  </si>
+  <si>
+    <t>오준호</t>
+  </si>
+  <si>
+    <t>dlgpals27@naver.com</t>
+  </si>
+  <si>
+    <t>이혜민</t>
+  </si>
+  <si>
+    <t>minhan3729@gmail.com</t>
+  </si>
+  <si>
+    <t>이민한</t>
+  </si>
+  <si>
+    <t>20217071@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>오선민</t>
+  </si>
+  <si>
+    <t>cje03112@gmail.com</t>
+  </si>
+  <si>
+    <t>최민석</t>
+  </si>
+  <si>
+    <t>jeongyeon256@gmail.com</t>
+  </si>
+  <si>
+    <t>이정연</t>
+  </si>
+  <si>
+    <t>isol62@naver.com</t>
+  </si>
+  <si>
+    <t>육이솔</t>
+  </si>
+  <si>
+    <t>freenix1001@naver.com</t>
+  </si>
+  <si>
+    <t>강서연</t>
+  </si>
+  <si>
+    <t>dosilver1107@naver.com</t>
+  </si>
+  <si>
+    <t>임도은</t>
+  </si>
+  <si>
+    <t>jsbaek16@gmail.com</t>
+  </si>
+  <si>
+    <t>김하선</t>
+  </si>
+  <si>
+    <t>rladbqls1728@naver.com</t>
+  </si>
+  <si>
+    <t>김유빈</t>
+  </si>
+  <si>
+    <t>pouoqjs@naver.com</t>
+  </si>
+  <si>
+    <t>서준서</t>
+  </si>
+  <si>
+    <t>rladyddus789@gmail.com</t>
+  </si>
+  <si>
+    <t>김용연</t>
+  </si>
+  <si>
+    <t>youngprinceb612@gmail.com</t>
+  </si>
+  <si>
+    <t>송원혁</t>
+  </si>
+  <si>
+    <t>eunhorui1029@gmail.com</t>
+  </si>
+  <si>
+    <t>조은호</t>
+  </si>
+  <si>
+    <t>zero040409@gmail.com</t>
+  </si>
+  <si>
+    <t>차하율</t>
+  </si>
+  <si>
+    <t>happle0313@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경영학과 </t>
+  </si>
+  <si>
+    <t>김희경</t>
+  </si>
+  <si>
+    <t>kfic0221@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능융합부</t>
+  </si>
+  <si>
+    <t>서동욱</t>
+  </si>
+  <si>
+    <t>tnqls06082@naver.com</t>
+  </si>
+  <si>
+    <t>조수빈</t>
   </si>
 </sst>
 </file>
@@ -38473,6 +38737,3471 @@
         <v>30</v>
       </c>
     </row>
+    <row r="457">
+      <c r="A457" s="2">
+        <v>45237.96876454861</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D457" s="3">
+        <v>2.0236771E7</v>
+      </c>
+      <c r="E457" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F457" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G457" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H457" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I457" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J457" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K457" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L457" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M457" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N457" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O457" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P457" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q457" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R457" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S457" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T457" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U457" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V457" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W457" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X457" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y457" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="2">
+        <v>45237.98243924769</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D458" s="3">
+        <v>2.0233529E7</v>
+      </c>
+      <c r="E458" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F458" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G458" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H458" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I458" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J458" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K458" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L458" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M458" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N458" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O458" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P458" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q458" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R458" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S458" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T458" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U458" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V458" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W458" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X458" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y458" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="2">
+        <v>45237.98625976851</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C459" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D459" s="3">
+        <v>2.0212708E7</v>
+      </c>
+      <c r="E459" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="F459" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G459" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H459" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I459" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J459" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K459" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L459" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M459" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N459" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O459" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P459" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q459" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R459" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S459" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T459" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U459" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V459" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W459" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X459" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y459" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="2">
+        <v>45237.98651287037</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C460" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D460" s="3">
+        <v>2.0182889E7</v>
+      </c>
+      <c r="E460" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F460" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G460" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H460" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I460" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J460" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K460" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L460" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M460" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N460" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O460" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P460" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q460" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R460" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S460" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T460" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U460" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V460" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W460" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X460" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y460" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="2">
+        <v>45237.990666261576</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C461" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D461" s="3">
+        <v>2.0222409E7</v>
+      </c>
+      <c r="E461" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F461" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G461" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H461" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I461" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J461" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K461" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L461" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M461" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N461" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O461" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P461" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q461" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R461" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S461" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T461" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U461" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V461" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W461" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X461" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y461" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="2">
+        <v>45238.03051938658</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D462" s="3">
+        <v>2.0231079E7</v>
+      </c>
+      <c r="E462" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F462" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G462" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H462" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I462" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J462" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K462" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L462" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M462" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N462" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O462" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P462" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q462" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R462" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S462" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T462" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U462" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V462" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W462" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X462" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y462" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="2">
+        <v>45238.06865021991</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C463" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D463" s="3">
+        <v>2.0236205E7</v>
+      </c>
+      <c r="E463" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F463" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G463" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H463" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I463" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J463" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K463" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L463" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M463" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N463" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O463" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P463" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q463" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R463" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S463" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T463" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U463" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V463" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W463" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X463" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y463" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="2">
+        <v>45238.07788405093</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C464" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D464" s="3">
+        <v>2.0222559E7</v>
+      </c>
+      <c r="E464" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F464" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G464" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H464" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I464" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J464" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K464" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L464" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M464" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N464" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O464" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P464" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q464" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R464" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S464" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T464" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U464" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V464" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W464" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X464" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y464" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="2">
+        <v>45238.3753566088</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C465" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D465" s="3">
+        <v>2.0233823E7</v>
+      </c>
+      <c r="E465" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F465" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G465" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H465" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I465" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J465" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K465" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L465" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M465" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N465" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O465" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P465" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q465" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R465" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S465" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T465" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U465" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V465" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W465" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X465" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y465" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="2">
+        <v>45238.54539554398</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D466" s="3">
+        <v>2.0232588E7</v>
+      </c>
+      <c r="E466" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F466" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G466" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H466" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I466" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J466" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K466" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L466" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M466" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N466" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O466" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P466" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q466" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R466" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S466" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T466" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U466" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V466" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W466" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X466" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y466" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="2">
+        <v>45238.56219703704</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C467" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D467" s="3">
+        <v>2.01853E7</v>
+      </c>
+      <c r="E467" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F467" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G467" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H467" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I467" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J467" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K467" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L467" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M467" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N467" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O467" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P467" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q467" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R467" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S467" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T467" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U467" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V467" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W467" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X467" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y467" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="2">
+        <v>45238.58622711805</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D468" s="3">
+        <v>2.0236295E7</v>
+      </c>
+      <c r="E468" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F468" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G468" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H468" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I468" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J468" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K468" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L468" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M468" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N468" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O468" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P468" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q468" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R468" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S468" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T468" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U468" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V468" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W468" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X468" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y468" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="2">
+        <v>45238.6028711574</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D469" s="3">
+        <v>2.0236129E7</v>
+      </c>
+      <c r="E469" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F469" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G469" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H469" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I469" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J469" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K469" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L469" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M469" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N469" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O469" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P469" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q469" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R469" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S469" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T469" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U469" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V469" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W469" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X469" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y469" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="2">
+        <v>45238.61109822917</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D470" s="3">
+        <v>22.0</v>
+      </c>
+      <c r="E470" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F470" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G470" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H470" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I470" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J470" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K470" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L470" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M470" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N470" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O470" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P470" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q470" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R470" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S470" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T470" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U470" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V470" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W470" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X470" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y470" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="2">
+        <v>45238.63499247685</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D471" s="3">
+        <v>2.0233608E7</v>
+      </c>
+      <c r="E471" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F471" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G471" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H471" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I471" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J471" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K471" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L471" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M471" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N471" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O471" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P471" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q471" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R471" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S471" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T471" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U471" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V471" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W471" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X471" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y471" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="2">
+        <v>45238.675562442135</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D472" s="3">
+        <v>2.0205261E7</v>
+      </c>
+      <c r="E472" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F472" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G472" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H472" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I472" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J472" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K472" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L472" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M472" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N472" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O472" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P472" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q472" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R472" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S472" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T472" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U472" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V472" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W472" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X472" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y472" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="2">
+        <v>45238.73947688658</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D473" s="3">
+        <v>2.0201627E7</v>
+      </c>
+      <c r="E473" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F473" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G473" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H473" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I473" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J473" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K473" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L473" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M473" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N473" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O473" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P473" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q473" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R473" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S473" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T473" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U473" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V473" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W473" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X473" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y473" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="2">
+        <v>45238.74921471065</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D474" s="3">
+        <v>2.0232946E7</v>
+      </c>
+      <c r="E474" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F474" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G474" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H474" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I474" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J474" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K474" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L474" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M474" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N474" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O474" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P474" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q474" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R474" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S474" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T474" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U474" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V474" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W474" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X474" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y474" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="2">
+        <v>45238.770926620375</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D475" s="3">
+        <v>2.0232114E7</v>
+      </c>
+      <c r="E475" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F475" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G475" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H475" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I475" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J475" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K475" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L475" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M475" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N475" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O475" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P475" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q475" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R475" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S475" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T475" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U475" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V475" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W475" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X475" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y475" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="2">
+        <v>45238.77870689815</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D476" s="3">
+        <v>2.0233734E7</v>
+      </c>
+      <c r="E476" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F476" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G476" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H476" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I476" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J476" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K476" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L476" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M476" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N476" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O476" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P476" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q476" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R476" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S476" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T476" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U476" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V476" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W476" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X476" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y476" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="2">
+        <v>45238.83826791667</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D477" s="3">
+        <v>2.0232636E7</v>
+      </c>
+      <c r="E477" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F477" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G477" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H477" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I477" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J477" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K477" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L477" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M477" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N477" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O477" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P477" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q477" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R477" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S477" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T477" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U477" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V477" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W477" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X477" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y477" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="2">
+        <v>45238.905784305556</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D478" s="3">
+        <v>2.0232586E7</v>
+      </c>
+      <c r="E478" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F478" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G478" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H478" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I478" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J478" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K478" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L478" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M478" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N478" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O478" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P478" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q478" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R478" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S478" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T478" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U478" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V478" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W478" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X478" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y478" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="2">
+        <v>45238.92152265046</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D479" s="3">
+        <v>2.0232842E7</v>
+      </c>
+      <c r="E479" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F479" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G479" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H479" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I479" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J479" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K479" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L479" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M479" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N479" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O479" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P479" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q479" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R479" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S479" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T479" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U479" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V479" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W479" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X479" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y479" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="2">
+        <v>45238.98550519676</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D480" s="3">
+        <v>2.0236785E7</v>
+      </c>
+      <c r="E480" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F480" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G480" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H480" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I480" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J480" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K480" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L480" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M480" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N480" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O480" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P480" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q480" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R480" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S480" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T480" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U480" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V480" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W480" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X480" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y480" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="2">
+        <v>45238.99380646991</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D481" s="3">
+        <v>2.0233906E7</v>
+      </c>
+      <c r="E481" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F481" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G481" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H481" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I481" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J481" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K481" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L481" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M481" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N481" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O481" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P481" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q481" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R481" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S481" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T481" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U481" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V481" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W481" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X481" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y481" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="2">
+        <v>45239.033424340276</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D482" s="3">
+        <v>2.0223807E7</v>
+      </c>
+      <c r="E482" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F482" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G482" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H482" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I482" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J482" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K482" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L482" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M482" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N482" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O482" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P482" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q482" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R482" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S482" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T482" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U482" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V482" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W482" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X482" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y482" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="2">
+        <v>45239.37856921296</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D483" s="3">
+        <v>2.0216258E7</v>
+      </c>
+      <c r="E483" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F483" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G483" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H483" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I483" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J483" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K483" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L483" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M483" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N483" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O483" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P483" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q483" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R483" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S483" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T483" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U483" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V483" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W483" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X483" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y483" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="2">
+        <v>45239.44136065972</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D484" s="3">
+        <v>2.0236767E7</v>
+      </c>
+      <c r="E484" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F484" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G484" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H484" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I484" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J484" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K484" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L484" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M484" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N484" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O484" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P484" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q484" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R484" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S484" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T484" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U484" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V484" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W484" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X484" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y484" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="2">
+        <v>45239.47154384259</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="D485" s="3">
+        <v>2.0182556E7</v>
+      </c>
+      <c r="E485" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F485" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G485" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H485" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I485" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J485" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K485" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L485" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M485" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N485" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O485" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P485" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q485" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R485" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S485" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T485" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U485" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V485" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W485" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X485" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y485" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="2">
+        <v>45239.4772140162</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D486" s="3">
+        <v>2.0217071E7</v>
+      </c>
+      <c r="E486" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F486" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G486" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H486" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I486" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J486" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K486" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L486" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M486" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N486" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O486" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P486" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q486" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R486" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S486" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T486" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U486" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V486" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W486" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X486" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y486" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="2">
+        <v>45239.558306817125</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D487" s="3">
+        <v>2.018258E7</v>
+      </c>
+      <c r="E487" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F487" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G487" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H487" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I487" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J487" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K487" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L487" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M487" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N487" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O487" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P487" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q487" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R487" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S487" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T487" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U487" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V487" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W487" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X487" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y487" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="2">
+        <v>45239.67603293981</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D488" s="3">
+        <v>2.0232232E7</v>
+      </c>
+      <c r="E488" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F488" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G488" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H488" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I488" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J488" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K488" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L488" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M488" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N488" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O488" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P488" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q488" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R488" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S488" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T488" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U488" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V488" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W488" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X488" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y488" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="2">
+        <v>45239.720530833336</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D489" s="3">
+        <v>2.0232339E7</v>
+      </c>
+      <c r="E489" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F489" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G489" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H489" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I489" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J489" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K489" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L489" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M489" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N489" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O489" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P489" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q489" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R489" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S489" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T489" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U489" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V489" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W489" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X489" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y489" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="2">
+        <v>45239.8888846412</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D490" s="3">
+        <v>2.0233903E7</v>
+      </c>
+      <c r="E490" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F490" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G490" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H490" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I490" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J490" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K490" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L490" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M490" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N490" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O490" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P490" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q490" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R490" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S490" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T490" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U490" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V490" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W490" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X490" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y490" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2">
+        <v>45239.91087706019</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D491" s="3">
+        <v>2.0212233E7</v>
+      </c>
+      <c r="E491" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F491" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G491" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H491" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I491" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J491" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K491" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L491" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M491" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N491" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O491" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P491" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q491" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R491" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S491" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T491" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U491" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V491" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W491" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X491" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y491" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="2">
+        <v>45239.956817847225</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D492" s="3">
+        <v>2.0222714E7</v>
+      </c>
+      <c r="E492" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F492" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G492" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H492" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I492" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J492" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K492" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L492" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M492" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N492" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O492" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P492" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q492" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R492" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S492" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T492" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U492" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V492" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W492" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X492" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y492" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="2">
+        <v>45239.963369317134</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D493" s="3">
+        <v>2.0232412E7</v>
+      </c>
+      <c r="E493" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F493" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G493" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H493" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I493" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J493" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K493" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L493" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M493" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N493" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O493" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P493" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q493" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R493" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S493" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T493" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U493" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V493" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W493" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X493" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y493" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="2">
+        <v>45239.96585976852</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D494" s="3">
+        <v>2.0232969E7</v>
+      </c>
+      <c r="E494" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F494" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G494" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H494" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I494" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J494" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K494" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L494" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M494" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N494" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O494" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P494" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q494" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R494" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S494" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T494" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U494" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V494" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W494" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X494" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y494" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="2">
+        <v>45239.9757224537</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D495" s="3">
+        <v>2.0191508E7</v>
+      </c>
+      <c r="E495" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F495" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G495" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H495" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I495" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J495" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K495" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L495" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M495" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N495" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O495" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P495" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q495" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R495" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S495" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T495" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U495" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V495" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W495" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X495" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y495" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="2">
+        <v>45240.0134191088</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D496" s="3">
+        <v>2.0233936E7</v>
+      </c>
+      <c r="E496" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F496" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G496" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H496" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I496" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J496" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K496" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L496" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M496" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N496" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O496" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P496" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q496" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R496" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S496" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T496" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U496" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V496" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W496" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X496" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y496" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="2">
+        <v>45240.043984710646</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D497" s="3">
+        <v>2.0223047E7</v>
+      </c>
+      <c r="E497" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F497" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G497" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H497" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I497" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J497" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K497" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L497" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M497" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N497" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O497" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P497" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q497" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R497" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S497" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T497" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U497" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V497" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W497" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X497" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y497" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="2">
+        <v>45240.052905833334</v>
+      </c>
+      <c r="B498" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C498" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D498" s="3">
+        <v>2.023305E7</v>
+      </c>
+      <c r="E498" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F498" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G498" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H498" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I498" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J498" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K498" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L498" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M498" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N498" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O498" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P498" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q498" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R498" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S498" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T498" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U498" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V498" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W498" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X498" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y498" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2">
+        <v>45240.09193121528</v>
+      </c>
+      <c r="B499" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C499" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D499" s="3">
+        <v>2.0202945E7</v>
+      </c>
+      <c r="E499" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F499" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G499" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H499" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I499" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J499" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K499" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L499" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M499" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N499" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O499" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P499" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q499" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R499" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S499" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T499" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U499" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V499" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W499" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X499" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y499" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="2">
+        <v>45240.11812861111</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D500" s="3">
+        <v>2.0236733E7</v>
+      </c>
+      <c r="E500" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F500" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G500" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H500" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I500" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J500" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K500" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L500" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M500" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N500" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O500" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P500" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q500" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R500" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S500" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T500" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U500" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V500" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W500" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X500" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y500" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2">
+        <v>45240.167914907404</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D501" s="3">
+        <v>2.0221728E7</v>
+      </c>
+      <c r="E501" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F501" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G501" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H501" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I501" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J501" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K501" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L501" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M501" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N501" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O501" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P501" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q501" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R501" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S501" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T501" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U501" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V501" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W501" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X501" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y501" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/food_plan_231030_tmp.xlsx
+++ b/R/data/food_plan_231030_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13525" uniqueCount="1298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14261" uniqueCount="1363">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3905,6 +3905,201 @@
   </si>
   <si>
     <t>김정후</t>
+  </si>
+  <si>
+    <t>zzx3488@naver.com</t>
+  </si>
+  <si>
+    <t>이인혁</t>
+  </si>
+  <si>
+    <t>rlagkdud114@naver.com</t>
+  </si>
+  <si>
+    <t>김하영</t>
+  </si>
+  <si>
+    <t>junwon5424@naver.com</t>
+  </si>
+  <si>
+    <t>미래융합쿨</t>
+  </si>
+  <si>
+    <t>김준원</t>
+  </si>
+  <si>
+    <t>tjdals041122@gmail.com</t>
+  </si>
+  <si>
+    <t>전성민</t>
+  </si>
+  <si>
+    <t>lma240228@gmail.com</t>
+  </si>
+  <si>
+    <t>김재민</t>
+  </si>
+  <si>
+    <t>jsubin0424@gmail.com</t>
+  </si>
+  <si>
+    <t>정수빈</t>
+  </si>
+  <si>
+    <t>minjeong7432@gmail.com</t>
+  </si>
+  <si>
+    <t>김민정</t>
+  </si>
+  <si>
+    <t>amdo0421@naver.com</t>
+  </si>
+  <si>
+    <t>이은빈</t>
+  </si>
+  <si>
+    <t>juhee040413@naver.com</t>
+  </si>
+  <si>
+    <t>박주희</t>
+  </si>
+  <si>
+    <t>sdw0820@gmail.com</t>
+  </si>
+  <si>
+    <t>성동휘</t>
+  </si>
+  <si>
+    <t>chant1238762@gmail.com</t>
+  </si>
+  <si>
+    <t>심재민</t>
+  </si>
+  <si>
+    <t>yeji28667@naver.com</t>
+  </si>
+  <si>
+    <t>신예지</t>
+  </si>
+  <si>
+    <t>zmcnvb@naver.com</t>
+  </si>
+  <si>
+    <t>02c06c@naver.com</t>
+  </si>
+  <si>
+    <t>김채현</t>
+  </si>
+  <si>
+    <t>sungyeon0803@gmail.com</t>
+  </si>
+  <si>
+    <t>최성연</t>
+  </si>
+  <si>
+    <t>luv7253@naver.com</t>
+  </si>
+  <si>
+    <t>임아리</t>
+  </si>
+  <si>
+    <t>dlwjdgh0808@naver.com</t>
+  </si>
+  <si>
+    <t>이정호</t>
+  </si>
+  <si>
+    <t>20211705@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>러시아어</t>
+  </si>
+  <si>
+    <t>김승겸</t>
+  </si>
+  <si>
+    <t>yena8546@naver.com</t>
+  </si>
+  <si>
+    <t>장예나</t>
+  </si>
+  <si>
+    <t>magicsung98@naver.com</t>
+  </si>
+  <si>
+    <t>김동훈</t>
+  </si>
+  <si>
+    <t>tkdgns8006@naver.com</t>
+  </si>
+  <si>
+    <t>이상훈</t>
+  </si>
+  <si>
+    <t>werty1082@naver.com</t>
+  </si>
+  <si>
+    <t>김민석</t>
+  </si>
+  <si>
+    <t>sykim09050905@gmail.com</t>
+  </si>
+  <si>
+    <t>김승연</t>
+  </si>
+  <si>
+    <t>unsc2438@gmail.com</t>
+  </si>
+  <si>
+    <t>최찬환</t>
+  </si>
+  <si>
+    <t>dlwlgy0001@naver.com</t>
+  </si>
+  <si>
+    <t>이지효</t>
+  </si>
+  <si>
+    <t>gaddong0507@gmail.com</t>
+  </si>
+  <si>
+    <t>김민균</t>
+  </si>
+  <si>
+    <t>jessica7096@naver.com</t>
+  </si>
+  <si>
+    <t>김보영</t>
+  </si>
+  <si>
+    <t>hyunjong9951@gmail.com</t>
+  </si>
+  <si>
+    <t>디스플레이학과</t>
+  </si>
+  <si>
+    <t>hyunseo4370@gmail.com</t>
+  </si>
+  <si>
+    <t>장현서</t>
+  </si>
+  <si>
+    <t>dbwjdrms21@naver.com</t>
+  </si>
+  <si>
+    <t>유정근</t>
+  </si>
+  <si>
+    <t>donguk3121@gmail.com</t>
+  </si>
+  <si>
+    <t>신동욱</t>
+  </si>
+  <si>
+    <t>back8028@naver.com</t>
+  </si>
+  <si>
+    <t>백재영</t>
   </si>
 </sst>
 </file>
@@ -49450,6 +49645,2470 @@
         <v>36</v>
       </c>
     </row>
+    <row r="589">
+      <c r="A589" s="2">
+        <v>45242.337032870375</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C589" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D589" s="3">
+        <v>2.0192953E7</v>
+      </c>
+      <c r="E589" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F589" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G589" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H589" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I589" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J589" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K589" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L589" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M589" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N589" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O589" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P589" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q589" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R589" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S589" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T589" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U589" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V589" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W589" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X589" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y589" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="2">
+        <v>45242.33889547454</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C590" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D590" s="3">
+        <v>2.0221026E7</v>
+      </c>
+      <c r="E590" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F590" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G590" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H590" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I590" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J590" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K590" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L590" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M590" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N590" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O590" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P590" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q590" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R590" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S590" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T590" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U590" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V590" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W590" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X590" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y590" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="2">
+        <v>45242.34813643519</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C591" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D591" s="3">
+        <v>2.0226613E7</v>
+      </c>
+      <c r="E591" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F591" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G591" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H591" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I591" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J591" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K591" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L591" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M591" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N591" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O591" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P591" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q591" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R591" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S591" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T591" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U591" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V591" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W591" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X591" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y591" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="2">
+        <v>45242.37166491898</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C592" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D592" s="3">
+        <v>2.0232357E7</v>
+      </c>
+      <c r="E592" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F592" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G592" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H592" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I592" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J592" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K592" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L592" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M592" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N592" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O592" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P592" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q592" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R592" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S592" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T592" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U592" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V592" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W592" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X592" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y592" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="2">
+        <v>45242.38164184028</v>
+      </c>
+      <c r="B593" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C593" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D593" s="3">
+        <v>2.0236608E7</v>
+      </c>
+      <c r="E593" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F593" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G593" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H593" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I593" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J593" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K593" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L593" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M593" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N593" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O593" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P593" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q593" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R593" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S593" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T593" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U593" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V593" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W593" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X593" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y593" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="2">
+        <v>45242.399776122686</v>
+      </c>
+      <c r="B594" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C594" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D594" s="3">
+        <v>2.0222355E7</v>
+      </c>
+      <c r="E594" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F594" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G594" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H594" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I594" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J594" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K594" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L594" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M594" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N594" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O594" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P594" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q594" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R594" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S594" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T594" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U594" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V594" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W594" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X594" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y594" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="2">
+        <v>45242.41413321759</v>
+      </c>
+      <c r="B595" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C595" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D595" s="3">
+        <v>2.0236217E7</v>
+      </c>
+      <c r="E595" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F595" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G595" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H595" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I595" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J595" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K595" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L595" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M595" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N595" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O595" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P595" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q595" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R595" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S595" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T595" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U595" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V595" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W595" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X595" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y595" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="2">
+        <v>45242.43066209491</v>
+      </c>
+      <c r="B596" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C596" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D596" s="3">
+        <v>2.0236278E7</v>
+      </c>
+      <c r="E596" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F596" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G596" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H596" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I596" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J596" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K596" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L596" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M596" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N596" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O596" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P596" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q596" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R596" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S596" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T596" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U596" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V596" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W596" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X596" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y596" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="2">
+        <v>45242.430927442125</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C597" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D597" s="3">
+        <v>2.0233817E7</v>
+      </c>
+      <c r="E597" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F597" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G597" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H597" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I597" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J597" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K597" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L597" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M597" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N597" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O597" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P597" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q597" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R597" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S597" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T597" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U597" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V597" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W597" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X597" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y597" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="2">
+        <v>45242.442350625</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C598" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D598" s="3">
+        <v>2.0233819E7</v>
+      </c>
+      <c r="E598" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F598" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G598" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H598" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I598" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J598" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K598" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L598" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M598" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N598" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O598" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P598" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q598" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R598" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S598" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T598" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U598" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V598" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W598" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X598" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y598" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="2">
+        <v>45242.46819655092</v>
+      </c>
+      <c r="B599" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C599" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D599" s="3">
+        <v>2.0225186E7</v>
+      </c>
+      <c r="E599" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F599" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G599" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H599" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I599" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J599" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K599" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L599" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M599" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N599" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O599" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P599" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q599" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R599" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S599" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T599" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U599" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V599" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W599" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X599" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y599" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="2">
+        <v>45242.49032982639</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C600" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D600" s="3">
+        <v>2.0236623E7</v>
+      </c>
+      <c r="E600" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F600" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G600" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H600" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I600" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J600" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K600" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L600" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M600" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N600" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O600" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P600" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q600" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R600" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S600" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T600" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U600" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V600" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W600" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X600" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y600" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="2">
+        <v>45242.491775497685</v>
+      </c>
+      <c r="B601" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C601" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D601" s="3">
+        <v>2.0213014E7</v>
+      </c>
+      <c r="E601" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F601" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G601" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H601" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I601" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J601" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K601" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L601" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M601" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N601" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O601" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P601" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q601" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R601" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S601" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T601" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U601" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V601" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W601" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X601" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y601" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="2">
+        <v>45242.493596817134</v>
+      </c>
+      <c r="B602" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C602" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="D602" s="3">
+        <v>2.0217055E7</v>
+      </c>
+      <c r="E602" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F602" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G602" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H602" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I602" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J602" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K602" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L602" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M602" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N602" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O602" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P602" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q602" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R602" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S602" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T602" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U602" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V602" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W602" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X602" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y602" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="2">
+        <v>45242.5019497801</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C603" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D603" s="3">
+        <v>2.0232437E7</v>
+      </c>
+      <c r="E603" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F603" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G603" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H603" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I603" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J603" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K603" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L603" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M603" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N603" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O603" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P603" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q603" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R603" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S603" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T603" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U603" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V603" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W603" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X603" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y603" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="2">
+        <v>45242.50967849537</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C604" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D604" s="3">
+        <v>2.023108E7</v>
+      </c>
+      <c r="E604" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F604" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G604" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H604" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I604" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J604" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K604" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L604" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M604" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N604" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O604" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P604" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q604" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R604" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S604" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T604" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U604" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V604" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W604" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X604" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y604" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="2">
+        <v>45242.51989440972</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C605" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="D605" s="3">
+        <v>2.0201083E7</v>
+      </c>
+      <c r="E605" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F605" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G605" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H605" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I605" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J605" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K605" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L605" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M605" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N605" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O605" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P605" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q605" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R605" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S605" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T605" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U605" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V605" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W605" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X605" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y605" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="2">
+        <v>45242.52240420139</v>
+      </c>
+      <c r="B606" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C606" s="3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D606" s="3">
+        <v>2.0211706E7</v>
+      </c>
+      <c r="E606" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F606" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G606" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H606" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I606" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J606" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K606" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L606" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M606" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N606" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O606" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P606" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q606" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R606" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S606" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T606" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U606" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V606" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W606" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X606" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y606" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="2">
+        <v>45242.53210167824</v>
+      </c>
+      <c r="B607" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C607" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D607" s="3">
+        <v>2.0233025E7</v>
+      </c>
+      <c r="E607" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F607" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G607" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H607" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I607" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J607" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K607" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L607" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M607" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N607" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O607" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P607" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q607" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R607" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S607" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T607" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U607" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V607" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W607" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X607" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y607" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="2">
+        <v>45242.53454295138</v>
+      </c>
+      <c r="B608" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C608" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D608" s="3">
+        <v>2.0212913E7</v>
+      </c>
+      <c r="E608" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F608" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G608" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H608" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I608" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J608" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K608" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L608" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M608" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N608" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O608" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P608" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q608" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R608" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S608" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T608" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U608" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V608" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W608" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X608" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y608" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="2">
+        <v>45242.53619428241</v>
+      </c>
+      <c r="B609" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C609" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D609" s="3">
+        <v>2.0207035E7</v>
+      </c>
+      <c r="E609" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F609" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G609" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H609" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I609" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J609" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K609" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L609" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M609" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N609" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O609" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P609" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q609" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R609" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S609" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T609" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U609" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V609" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W609" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X609" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y609" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="2">
+        <v>45242.54114137731</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C610" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D610" s="3">
+        <v>2.0232509E7</v>
+      </c>
+      <c r="E610" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F610" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G610" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H610" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I610" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J610" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K610" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L610" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M610" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N610" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O610" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P610" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q610" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R610" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S610" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T610" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U610" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V610" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W610" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X610" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y610" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="2">
+        <v>45242.543206250004</v>
+      </c>
+      <c r="B611" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C611" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D611" s="3">
+        <v>2.0236223E7</v>
+      </c>
+      <c r="E611" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F611" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G611" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H611" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I611" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J611" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K611" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L611" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M611" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N611" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O611" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P611" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q611" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R611" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S611" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T611" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U611" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V611" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W611" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X611" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y611" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="2">
+        <v>45242.54428443287</v>
+      </c>
+      <c r="B612" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C612" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D612" s="3">
+        <v>2.0225271E7</v>
+      </c>
+      <c r="E612" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F612" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G612" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H612" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I612" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J612" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K612" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L612" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M612" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N612" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O612" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P612" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q612" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R612" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S612" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T612" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U612" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V612" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W612" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X612" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y612" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="2">
+        <v>45242.54939673611</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C613" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D613" s="3">
+        <v>2.0203024E7</v>
+      </c>
+      <c r="E613" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F613" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G613" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H613" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I613" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J613" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K613" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L613" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M613" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N613" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O613" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P613" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q613" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R613" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S613" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T613" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U613" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V613" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W613" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X613" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y613" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="2">
+        <v>45242.55378635417</v>
+      </c>
+      <c r="B614" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C614" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D614" s="3">
+        <v>2.0232106E7</v>
+      </c>
+      <c r="E614" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F614" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G614" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H614" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I614" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J614" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K614" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L614" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M614" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N614" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O614" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P614" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q614" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R614" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S614" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T614" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U614" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V614" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W614" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X614" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y614" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="2">
+        <v>45242.553877557875</v>
+      </c>
+      <c r="B615" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C615" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D615" s="3">
+        <v>2.0221705E7</v>
+      </c>
+      <c r="E615" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F615" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G615" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H615" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I615" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J615" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K615" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L615" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M615" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N615" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O615" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P615" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q615" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R615" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S615" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T615" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U615" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V615" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W615" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X615" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y615" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="2">
+        <v>45242.557360844905</v>
+      </c>
+      <c r="B616" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C616" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D616" s="3">
+        <v>2.0183319E7</v>
+      </c>
+      <c r="E616" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="F616" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G616" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H616" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I616" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J616" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K616" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L616" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M616" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N616" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O616" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P616" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q616" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R616" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S616" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T616" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U616" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V616" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W616" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X616" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y616" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="2">
+        <v>45242.56374258102</v>
+      </c>
+      <c r="B617" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C617" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D617" s="3">
+        <v>2.0236636E7</v>
+      </c>
+      <c r="E617" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F617" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G617" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H617" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I617" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J617" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K617" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L617" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M617" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N617" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O617" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P617" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q617" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R617" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S617" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T617" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U617" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V617" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W617" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X617" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y617" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="2">
+        <v>45242.56395806713</v>
+      </c>
+      <c r="B618" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C618" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D618" s="3">
+        <v>2.0183829E7</v>
+      </c>
+      <c r="E618" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F618" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G618" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H618" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I618" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J618" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K618" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L618" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M618" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N618" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O618" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P618" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q618" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R618" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S618" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T618" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U618" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V618" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W618" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X618" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y618" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="2">
+        <v>45242.56695054398</v>
+      </c>
+      <c r="B619" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C619" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D619" s="3">
+        <v>2.0226129E7</v>
+      </c>
+      <c r="E619" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F619" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G619" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H619" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I619" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J619" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K619" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L619" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M619" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N619" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O619" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P619" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q619" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R619" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S619" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T619" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U619" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V619" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W619" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X619" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y619" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="2">
+        <v>45242.570618240745</v>
+      </c>
+      <c r="B620" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C620" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D620" s="3">
+        <v>2.0202972E7</v>
+      </c>
+      <c r="E620" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F620" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G620" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H620" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I620" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J620" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K620" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L620" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M620" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N620" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O620" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P620" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q620" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R620" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S620" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T620" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U620" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V620" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W620" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X620" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y620" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
